--- a/AYUDANTIA/PARCIAL 2 P3.xlsx
+++ b/AYUDANTIA/PARCIAL 2 P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to-Semestre\AYUDANTIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC99259B-C334-4044-AE8B-EF2E9B499A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38483177-21D1-474F-B3B7-390B66E6D923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
   <si>
     <t>Nombre</t>
   </si>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1387,6 +1387,9 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -1398,6 +1401,9 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -1417,6 +1423,9 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1433,6 +1442,9 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -1476,6 +1488,9 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -1495,6 +1510,9 @@
       <c r="C14" t="s">
         <v>60</v>
       </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -1512,23 +1530,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1536,15 +1560,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1552,15 +1579,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1568,7 +1598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1576,7 +1606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>48</v>
       </c>

--- a/AYUDANTIA/PARCIAL 2 P3.xlsx
+++ b/AYUDANTIA/PARCIAL 2 P3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to-Semestre\AYUDANTIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to Sync\4to copia\4to-Semestre\AYUDANTIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC99259B-C334-4044-AE8B-EF2E9B499A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAD702-774B-4B95-81FB-53CD8CAA43CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas_Deberes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>Nombre</t>
   </si>
@@ -187,21 +187,6 @@
     <t>VIZCAINO CHINCHUñA</t>
   </si>
   <si>
-    <t>RD1_C1_T1</t>
-  </si>
-  <si>
-    <t>RD1_C1_T2</t>
-  </si>
-  <si>
-    <t>RD1_C2_T1</t>
-  </si>
-  <si>
-    <t>RD1_C2_T2</t>
-  </si>
-  <si>
-    <t>Deber Opcional</t>
-  </si>
-  <si>
     <t>Decimas</t>
   </si>
   <si>
@@ -218,6 +203,48 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>RD2_C1_T1</t>
+  </si>
+  <si>
+    <t>RD2_C1_T2</t>
+  </si>
+  <si>
+    <t>RD2_C2_T1</t>
+  </si>
+  <si>
+    <t>Cadena sentido inverso</t>
+  </si>
+  <si>
+    <t>Palindromo con espacios y mayuscula minusculas</t>
+  </si>
+  <si>
+    <t>Contar y presentar palabras en una cadena</t>
+  </si>
+  <si>
+    <t>Mayor de un grupo de datos</t>
+  </si>
+  <si>
+    <t>Cadena de 0 y 1 ordenada sin usar sort()</t>
+  </si>
+  <si>
+    <t>Estadisticas del curso</t>
+  </si>
+  <si>
+    <t>Repetidos en 2 grupos de datos</t>
+  </si>
+  <si>
+    <t>Cadena ordenada por longitudes</t>
+  </si>
+  <si>
+    <t>Suma y resta de matrices</t>
+  </si>
+  <si>
+    <t>Deber Opcional 1</t>
+  </si>
+  <si>
+    <t>Deber Opcional 2</t>
   </si>
 </sst>
 </file>
@@ -457,7 +484,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -776,18 +803,18 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -798,19 +825,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -820,13 +844,19 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="e">
+      <c r="C2">
+        <v>40.6</v>
+      </c>
+      <c r="D2">
+        <v>27.47</v>
+      </c>
+      <c r="G2">
         <f t="shared" ref="G2:G25" si="0">AVERAGE(C2:F2)</f>
-        <v>#DIV/0!</v>
+        <v>34.034999999999997</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -836,9 +866,15 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="e">
+      <c r="C3">
+        <v>48.5</v>
+      </c>
+      <c r="D3">
+        <v>45.31</v>
+      </c>
+      <c r="G3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>46.905000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -848,9 +884,15 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="e">
+      <c r="C4">
+        <v>41.7</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>41.85</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -860,9 +902,15 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="e">
+      <c r="C5">
+        <v>46.2</v>
+      </c>
+      <c r="D5">
+        <v>47.8</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -872,9 +920,15 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="e">
+      <c r="C6">
+        <v>46.2</v>
+      </c>
+      <c r="D6">
+        <v>47.8</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -884,9 +938,15 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="e">
+      <c r="C7">
+        <v>44.5</v>
+      </c>
+      <c r="D7">
+        <v>40.47</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>42.484999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -896,9 +956,15 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="e">
+      <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -908,9 +974,15 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="e">
+      <c r="C9">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>45.6</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -920,9 +992,15 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="e">
+      <c r="C10">
+        <v>47.5</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -932,9 +1010,15 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="e">
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>47.75</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>47.875</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -944,9 +1028,15 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="e">
+      <c r="C12">
+        <v>46.1</v>
+      </c>
+      <c r="D12">
+        <v>45.9</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -956,9 +1046,15 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" t="e">
+      <c r="C13">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -968,9 +1064,15 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="e">
+      <c r="C14">
+        <v>48.5</v>
+      </c>
+      <c r="D14">
+        <v>45.31</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>46.905000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -980,9 +1082,15 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="G15" t="e">
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -992,9 +1100,15 @@
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="G16" t="e">
+      <c r="C16">
+        <v>30.75</v>
+      </c>
+      <c r="D16">
+        <v>48.37</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1004,9 +1118,15 @@
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="e">
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>30.24</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>35.119999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1016,9 +1136,15 @@
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="G18" t="e">
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>30.24</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>35.119999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1028,9 +1154,15 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="G19" t="e">
+      <c r="C19">
+        <v>47.5</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1040,9 +1172,15 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="G20" t="e">
+      <c r="C20">
+        <v>46.1</v>
+      </c>
+      <c r="D20">
+        <v>45.9</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1052,9 +1190,15 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" t="e">
+      <c r="C21">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>47.75</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>47.875</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1064,9 +1208,15 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" t="e">
+      <c r="C22">
+        <v>44.5</v>
+      </c>
+      <c r="D22">
+        <v>40.47</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>42.484999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1076,9 +1226,15 @@
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="G23" t="e">
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>27.47</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>16.734999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1088,9 +1244,15 @@
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="G24" t="e">
+      <c r="C24">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1100,9 +1262,15 @@
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="G25" t="e">
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>
@@ -1116,221 +1284,928 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>50</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <v>50</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1340,24 +2215,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="16377" width="10.33203125" customWidth="1"/>
-    <col min="16378" max="16384" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="16377" width="10.28515625" customWidth="1"/>
+    <col min="16378" max="16384" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1365,19 +2241,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1385,10 +2264,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1396,10 +2281,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1407,18 +2295,21 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1426,15 +2317,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +2336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1450,7 +2344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1458,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1466,18 +2360,21 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1485,7 +2382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1493,10 +2390,13 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1504,7 +2404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1512,23 +2412,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1536,15 +2442,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1552,15 +2461,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1568,7 +2480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1576,7 +2488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>48</v>
       </c>

--- a/AYUDANTIA/PARCIAL 2 P3.xlsx
+++ b/AYUDANTIA/PARCIAL 2 P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\4to Sync\4to copia\4to-Semestre\AYUDANTIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAD702-774B-4B95-81FB-53CD8CAA43CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B9FE66-5BE1-4482-B2C5-4003FD5B0B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2218,7 +2218,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2272,6 +2272,9 @@
       <c r="E2" t="s">
         <v>55</v>
       </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -2286,6 +2289,9 @@
       <c r="D3" t="s">
         <v>55</v>
       </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -2297,6 +2303,9 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -2308,6 +2317,9 @@
       <c r="D5" t="s">
         <v>55</v>
       </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -2327,6 +2339,9 @@
       <c r="D7" t="s">
         <v>55</v>
       </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2362,6 +2377,9 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -2381,6 +2399,9 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -2412,7 +2433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2422,8 +2443,11 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2433,8 +2457,11 @@
       <c r="D18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2442,7 +2469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2452,8 +2479,11 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2461,7 +2491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2471,8 +2501,11 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2480,7 +2513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2488,7 +2521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>48</v>
       </c>
